--- a/profiles/profile1.xlsx
+++ b/profiles/profile1.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NeuralNet Analysis" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="2HL NN" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16,6 +18,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>MAPE</t>
+  </si>
+  <si>
+    <t>NN HL1-N10</t>
+  </si>
+  <si>
+    <t>NN HL2-N10</t>
+  </si>
+  <si>
+    <t>NN HL1-N20</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,8 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +89,2990 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance of Different Neural Net Methodologies to Classify Battery Chemistry From Discharge </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NeuralNet Analysis'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NN HL1-N10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NeuralNet Analysis'!$A$2:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NeuralNet Analysis'!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>7.5470984250120799E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4347399033672499E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0036087797260401E-6</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.2796286569802899E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8619538784645402E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8034259536428299E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3275127145584104E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.36873424925601E-5</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.332726637550677</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0281398600325302E-5</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.14472195781962499</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1.96494059216145E-4</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.51384334285374E-4</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.28872432093665501</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.35549190242595802</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>4.6994175644220402</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>8.5092321849129604</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>4.8043481113353703</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>18.268136400304002</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>21.3452208610891</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>24.396415806788099</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>26.527131747685601</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>29.294711696549001</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>32.734892559679601</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>34.685061173539999</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>38.220555908945002</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>39.449868043088401</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>41.613428155432103</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>43.213488467207398</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>44.349133793503398</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>45.783849267216503</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>46.829489091317001</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>47.955596784108003</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>45.538883569199903</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>46.402158609813704</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>46.976611439011897</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>45.969320839236502</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>47.267704191411902</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>47.705388669317003</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>47.874147114810498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C095-49F2-9A50-364CF203DAED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NeuralNet Analysis'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NN HL2-N10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NeuralNet Analysis'!$A$2:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NeuralNet Analysis'!$C$2:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.18722550177308E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6483860572553804E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8955942946036899E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8732122248925803E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1956847559474197E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.01205886567254E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0597616394199805E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9740911360586801E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1413400263192799E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4554620131886699E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2550427363127501E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0924970208039697E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5250246473644299E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4169618605180702E-5</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.40067480919656301</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>3.9288562184690599</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>6.9830008881883101</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>3.2690940003977702</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>16.877473893133899</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>21.4911877995801</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>22.7784125431583</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>25.193317000564399</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>28.8652825244593</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>31.317359516364998</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>32.567562976231301</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>33.843963131662399</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>35.822038575817302</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>38.177328442981</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>45.118122368349503</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>45.045383135983798</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>42.6390497644758</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>46.8180652011349</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>42.939162335644703</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>43.406799990992901</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>44.132421215393499</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>45.124897196615599</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>45.499082676307701</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>44.992070333834903</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>46.381568785591</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>46.974208976229903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C095-49F2-9A50-364CF203DAED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NeuralNet Analysis'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NN HL1-N20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NeuralNet Analysis'!$A$2:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NeuralNet Analysis'!$D$2:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>9.4404667796271798E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1301068304770001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0964396588495301E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6239212374808199E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.3280526806308299E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.92049299990221E-5</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.2243391048904901E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.29188441205901E-5</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.14120967159015E-4</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>1.53716234323564E-4</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.4228353079876401E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5867573952655402E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3533644527336004E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3834618800810097E-5</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.33500758902091998</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>4.0540219104381299</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>8.2753765568841207</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>4.1114137640855999</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>17.075517449365002</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>20.152326380806699</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>22.186773623434899</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>26.205208999402799</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>29.1729956172999</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>33.3767106300335</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>32.232052026395301</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>34.433188488410302</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>39.429220740026302</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>39.763817758232001</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>43.647904853085301</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>42.314561366342403</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>44.556850101940803</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>44.908764040733899</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>43.4148945747475</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>46.882693759382001</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>45.219608620052703</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>45.599877604828002</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>45.691715487277001</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>46.740516915381697</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>46.681932364111098</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>47.297881327522099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-C095-49F2-9A50-364CF203DAED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="544484632"/>
+        <c:axId val="544487584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="544484632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Load Current</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544487584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="544487584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MAPE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544484632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2HL NN'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2HL NN'!$A$2:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2HL NN'!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.18722550177308E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6483860572553804E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8955942946036899E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8732122248925803E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1956847559474197E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.01205886567254E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0597616394199805E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9740911360586801E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1413400263192799E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4554620131886699E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2550427363127501E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0924970208039697E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5250246473644299E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4169618605180702E-5</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.40067480919656301</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>3.9288562184690599</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>6.9830008881883101</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>3.2690940003977702</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>16.877473893133899</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>21.4911877995801</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>22.7784125431583</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>25.193317000564399</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>28.8652825244593</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>31.317359516364998</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>32.567562976231301</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>33.843963131662399</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>35.822038575817302</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>38.177328442981</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>45.118122368349503</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>45.045383135983798</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>42.6390497644758</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>46.8180652011349</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>42.939162335644703</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>43.406799990992901</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>44.132421215393499</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>45.124897196615599</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>45.499082676307701</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>44.992070333834903</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>46.381568785591</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>46.974208976229903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-20A6-4CDB-81AA-E66512B91799}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="391912424"/>
+        <c:axId val="391914392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="391912424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391914392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="391914392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391912424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B8528D-B54A-430B-8492-74DCDF0FE5E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE32595-BB14-4C17-9FDF-1D13133E46A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +3338,949 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7.5470984250120799E-5</v>
+      </c>
+      <c r="C2">
+        <v>1.18722550177308E-4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9.4404667796271798E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5.4347399033672499E-5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.6483860572553804E-5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9.1301068304770001E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.0036087797260401E-6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.8955942946036899E-5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.0964396588495301E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1.2796286569802899E-4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.8732122248925803E-5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.6239212374808199E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.8619538784645402E-5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7.1956847559474197E-5</v>
+      </c>
+      <c r="D6">
+        <v>1.3280526806308299E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.8034259536428299E-5</v>
+      </c>
+      <c r="C7">
+        <v>1.01205886567254E-4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.92049299990221E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3.5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9.3275127145584104E-5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9.0597616394199805E-6</v>
+      </c>
+      <c r="D8">
+        <v>1.2243391048904901E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4.36873424925601E-5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.9740911360586801E-5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6.29188441205901E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4.5</v>
+      </c>
+      <c r="B10">
+        <v>0.332726637550677</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.1413400263192799E-5</v>
+      </c>
+      <c r="D10">
+        <v>1.14120967159015E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5.0281398600325302E-5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.4554620131886699E-5</v>
+      </c>
+      <c r="D11">
+        <v>1.53716234323564E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5.5</v>
+      </c>
+      <c r="B12">
+        <v>0.14472195781962499</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.2550427363127501E-5</v>
+      </c>
+      <c r="D12">
+        <v>1.4228353079876401E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>1.96494059216145E-4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.0924970208039697E-5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4.5867573952655402E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6.5</v>
+      </c>
+      <c r="B14">
+        <v>1.51384334285374E-4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.5250246473644299E-5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8.3533644527336004E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0.28872432093665501</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.4169618605180702E-5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7.3834618800810097E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7.5</v>
+      </c>
+      <c r="B16">
+        <v>0.35549190242595802</v>
+      </c>
+      <c r="C16">
+        <v>0.40067480919656301</v>
+      </c>
+      <c r="D16">
+        <v>0.33500758902091998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4.6994175644220402</v>
+      </c>
+      <c r="C17">
+        <v>3.9288562184690599</v>
+      </c>
+      <c r="D17">
+        <v>4.0540219104381299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8.5</v>
+      </c>
+      <c r="B18">
+        <v>8.5092321849129604</v>
+      </c>
+      <c r="C18">
+        <v>6.9830008881883101</v>
+      </c>
+      <c r="D18">
+        <v>8.2753765568841207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>4.8043481113353703</v>
+      </c>
+      <c r="C19">
+        <v>3.2690940003977702</v>
+      </c>
+      <c r="D19">
+        <v>4.1114137640855999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9.5</v>
+      </c>
+      <c r="B20">
+        <v>18.268136400304002</v>
+      </c>
+      <c r="C20">
+        <v>16.877473893133899</v>
+      </c>
+      <c r="D20">
+        <v>17.075517449365002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>21.3452208610891</v>
+      </c>
+      <c r="C21">
+        <v>21.4911877995801</v>
+      </c>
+      <c r="D21">
+        <v>20.152326380806699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10.5</v>
+      </c>
+      <c r="B22">
+        <v>24.396415806788099</v>
+      </c>
+      <c r="C22">
+        <v>22.7784125431583</v>
+      </c>
+      <c r="D22">
+        <v>22.186773623434899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>26.527131747685601</v>
+      </c>
+      <c r="C23">
+        <v>25.193317000564399</v>
+      </c>
+      <c r="D23">
+        <v>26.205208999402799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>11.5</v>
+      </c>
+      <c r="B24">
+        <v>29.294711696549001</v>
+      </c>
+      <c r="C24">
+        <v>28.8652825244593</v>
+      </c>
+      <c r="D24">
+        <v>29.1729956172999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>32.734892559679601</v>
+      </c>
+      <c r="C25">
+        <v>31.317359516364998</v>
+      </c>
+      <c r="D25">
+        <v>33.3767106300335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>12.5</v>
+      </c>
+      <c r="B26">
+        <v>34.685061173539999</v>
+      </c>
+      <c r="C26">
+        <v>32.567562976231301</v>
+      </c>
+      <c r="D26">
+        <v>32.232052026395301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>38.220555908945002</v>
+      </c>
+      <c r="C27">
+        <v>33.843963131662399</v>
+      </c>
+      <c r="D27">
+        <v>34.433188488410302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>13.5</v>
+      </c>
+      <c r="B28">
+        <v>39.449868043088401</v>
+      </c>
+      <c r="C28">
+        <v>35.822038575817302</v>
+      </c>
+      <c r="D28">
+        <v>39.429220740026302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>41.613428155432103</v>
+      </c>
+      <c r="C29">
+        <v>38.177328442981</v>
+      </c>
+      <c r="D29">
+        <v>39.763817758232001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>14.5</v>
+      </c>
+      <c r="B30">
+        <v>43.213488467207398</v>
+      </c>
+      <c r="C30">
+        <v>45.118122368349503</v>
+      </c>
+      <c r="D30">
+        <v>43.647904853085301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>44.349133793503398</v>
+      </c>
+      <c r="C31">
+        <v>45.045383135983798</v>
+      </c>
+      <c r="D31">
+        <v>42.314561366342403</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>15.5</v>
+      </c>
+      <c r="B32">
+        <v>45.783849267216503</v>
+      </c>
+      <c r="C32">
+        <v>42.6390497644758</v>
+      </c>
+      <c r="D32">
+        <v>44.556850101940803</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>46.829489091317001</v>
+      </c>
+      <c r="C33">
+        <v>46.8180652011349</v>
+      </c>
+      <c r="D33">
+        <v>44.908764040733899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>16.5</v>
+      </c>
+      <c r="B34">
+        <v>47.955596784108003</v>
+      </c>
+      <c r="C34">
+        <v>42.939162335644703</v>
+      </c>
+      <c r="D34">
+        <v>43.4148945747475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>45.538883569199903</v>
+      </c>
+      <c r="C35">
+        <v>43.406799990992901</v>
+      </c>
+      <c r="D35">
+        <v>46.882693759382001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>17.5</v>
+      </c>
+      <c r="B36">
+        <v>46.402158609813704</v>
+      </c>
+      <c r="C36">
+        <v>44.132421215393499</v>
+      </c>
+      <c r="D36">
+        <v>45.219608620052703</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>46.976611439011897</v>
+      </c>
+      <c r="C37">
+        <v>45.124897196615599</v>
+      </c>
+      <c r="D37">
+        <v>45.599877604828002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>18.5</v>
+      </c>
+      <c r="B38">
+        <v>45.969320839236502</v>
+      </c>
+      <c r="C38">
+        <v>45.499082676307701</v>
+      </c>
+      <c r="D38">
+        <v>45.691715487277001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>47.267704191411902</v>
+      </c>
+      <c r="C39">
+        <v>44.992070333834903</v>
+      </c>
+      <c r="D39">
+        <v>46.740516915381697</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>19.5</v>
+      </c>
+      <c r="B40">
+        <v>47.705388669317003</v>
+      </c>
+      <c r="C40">
+        <v>46.381568785591</v>
+      </c>
+      <c r="D40">
+        <v>46.681932364111098</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>47.874147114810498</v>
+      </c>
+      <c r="C41">
+        <v>46.974208976229903</v>
+      </c>
+      <c r="D41">
+        <v>47.297881327522099</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <v>1.18722550177308E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6.6483860572553804E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.8955942946036899E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8.8732122248925803E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7.1956847559474197E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1.01205886567254E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3.5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9.0597616394199805E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.9740911360586801E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4.5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.1413400263192799E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.4554620131886699E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5.5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.2550427363127501E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5.0924970208039697E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6.5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.5250246473644299E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.4169618605180702E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7.5</v>
+      </c>
+      <c r="B16">
+        <v>0.40067480919656301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>3.9288562184690599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8.5</v>
+      </c>
+      <c r="B18">
+        <v>6.9830008881883101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>3.2690940003977702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9.5</v>
+      </c>
+      <c r="B20">
+        <v>16.877473893133899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>21.4911877995801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10.5</v>
+      </c>
+      <c r="B22">
+        <v>22.7784125431583</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>25.193317000564399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>11.5</v>
+      </c>
+      <c r="B24">
+        <v>28.8652825244593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>31.317359516364998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>12.5</v>
+      </c>
+      <c r="B26">
+        <v>32.567562976231301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>33.843963131662399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>13.5</v>
+      </c>
+      <c r="B28">
+        <v>35.822038575817302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>38.177328442981</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>14.5</v>
+      </c>
+      <c r="B30">
+        <v>45.118122368349503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>45.045383135983798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>15.5</v>
+      </c>
+      <c r="B32">
+        <v>42.6390497644758</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>46.8180652011349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>16.5</v>
+      </c>
+      <c r="B34">
+        <v>42.939162335644703</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>43.406799990992901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>17.5</v>
+      </c>
+      <c r="B36">
+        <v>44.132421215393499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>45.124897196615599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>18.5</v>
+      </c>
+      <c r="B38">
+        <v>45.499082676307701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>44.992070333834903</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>19.5</v>
+      </c>
+      <c r="B40">
+        <v>46.381568785591</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>46.974208976229903</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>